--- a/output/1Y_P67_1VAL-D.xlsx
+++ b/output/1Y_P67_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>559.3810999999999</v>
       </c>
-      <c r="G2" s="1">
-        <v>559.3810999999999</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.145399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8769</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E3" s="1">
+        <v>559.3810999999999</v>
+      </c>
       <c r="F3" s="1">
         <v>559.3717</v>
       </c>
-      <c r="G3" s="1">
-        <v>1118.7528</v>
-      </c>
       <c r="H3" s="1">
-        <v>19896.4594</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.877</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8769</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19896.4594</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0026</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E4" s="1">
+        <v>1118.7528</v>
+      </c>
       <c r="F4" s="1">
         <v>549.8312</v>
       </c>
-      <c r="G4" s="1">
-        <v>1668.584</v>
-      </c>
       <c r="H4" s="1">
-        <v>30189.8575</v>
+        <v>20241.7065</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9793</v>
+        <v>20241.7065</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.877</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30189.8575</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0098</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E5" s="1">
+        <v>1668.584</v>
+      </c>
       <c r="F5" s="1">
         <v>567.756</v>
       </c>
-      <c r="G5" s="1">
-        <v>2236.34</v>
-      </c>
       <c r="H5" s="1">
-        <v>39184.7025</v>
+        <v>29236.5954</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8864</v>
+        <v>29236.5954</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9793</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39184.7025</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.025</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.806</v>
       </c>
+      <c r="E6" s="1">
+        <v>2236.34</v>
+      </c>
       <c r="F6" s="1">
         <v>561.6084</v>
       </c>
-      <c r="G6" s="1">
-        <v>2797.9485</v>
-      </c>
       <c r="H6" s="1">
-        <v>49562.0197</v>
+        <v>39613.8562</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8702</v>
+        <v>39613.8562</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8864</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49562.0197</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0077</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E7" s="1">
+        <v>2797.9485</v>
+      </c>
       <c r="F7" s="1">
         <v>544.8878999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>3342.8363</v>
-      </c>
       <c r="H7" s="1">
-        <v>61030.8314</v>
+        <v>51082.7047</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9488</v>
+        <v>51082.7047</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8702</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61030.8314</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0247</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E8" s="1">
+        <v>3342.8363</v>
+      </c>
       <c r="F8" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G8" s="1">
-        <v>3905.0352</v>
-      </c>
       <c r="H8" s="1">
-        <v>69099.9883</v>
+        <v>59151.8231</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9256</v>
+        <v>59151.8231</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9488</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69099.9883</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0272</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E9" s="1">
+        <v>3905.0352</v>
+      </c>
       <c r="F9" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G9" s="1">
-        <v>4456.7015</v>
-      </c>
       <c r="H9" s="1">
-        <v>80367.25260000001</v>
+        <v>70419.10920000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9505</v>
+        <v>70419.10920000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9256</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80367.25260000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.016</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E10" s="1">
+        <v>4456.7015</v>
+      </c>
       <c r="F10" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G10" s="1">
-        <v>5015.9325</v>
-      </c>
       <c r="H10" s="1">
-        <v>89228.4224</v>
+        <v>79280.2631</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9428</v>
+        <v>79280.2631</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9505</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89228.4224</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0126</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,38 +1176,38 @@
       <c r="D11" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E11" s="1">
+        <v>5015.9325</v>
+      </c>
       <c r="F11" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G11" s="1">
-        <v>5574.8508</v>
-      </c>
       <c r="H11" s="1">
-        <v>99226.77</v>
+        <v>89278.5817</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.9377</v>
+        <v>89278.5817</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.9428</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99226.77</v>
       </c>
       <c r="Q11" s="3">
         <v>-0</v>
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E12" s="1">
+        <v>5574.8508</v>
+      </c>
       <c r="F12" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G12" s="1">
-        <v>6190.0802</v>
-      </c>
       <c r="H12" s="1">
-        <v>100092.3592</v>
+        <v>90144.223</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7704</v>
+        <v>90144.223</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.9377</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.5</v>
       </c>
-      <c r="L12" s="1">
-        <v>2508.6829</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7491.3171</v>
+        <v>2257.1696</v>
       </c>
       <c r="O12" s="1">
-        <v>2508.6829</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>102601.042</v>
+        <v>-7742.8304</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0607</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E13" s="1">
+        <v>6190.0802</v>
+      </c>
       <c r="F13" s="1">
-        <v>809.3668</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6999.447</v>
+        <v>793.0928</v>
       </c>
       <c r="H13" s="1">
-        <v>107614.398</v>
+        <v>95170.62639999999</v>
       </c>
       <c r="I13" s="1">
-        <v>122508.6829</v>
+        <v>2257.1696</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5026</v>
+        <v>97427.796</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112257.1696</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.135</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12508.6829</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>107614.398</v>
+        <v>-12257.1696</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0443</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E14" s="1">
+        <v>6983.173</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6999.447</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6190.0802</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108499.6539</v>
       </c>
       <c r="I14" s="1">
-        <v>122508.6829</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5026</v>
+        <v>108499.6539</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112257.1696</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0754</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108752.5081</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108752.5081</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>108752.5081</v>
+        <v>96177.13340000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07530000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.8769</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.3810999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>559.3810999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.145399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8769</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.8772</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>559.3810999999999</v>
       </c>
       <c r="F3" s="1">
         <v>559.3717</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.7528</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19896.4594</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.877</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8769</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19896.4594</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0026</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.1874</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1118.7528</v>
       </c>
       <c r="F4" s="1">
         <v>539.3378</v>
       </c>
       <c r="G4" s="1">
-        <v>1658.0907</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20241.7065</v>
       </c>
       <c r="I4" s="1">
-        <v>29809.153</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.978</v>
+        <v>20241.7065</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19809.153</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.7065</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9809.153</v>
       </c>
-      <c r="O4" s="1">
-        <v>190.847</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30190.847</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0098</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.6132</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1658.0907</v>
       </c>
       <c r="F5" s="1">
         <v>578.5915</v>
       </c>
       <c r="G5" s="1">
-        <v>2236.6821</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39190.6965</v>
+        <v>29052.7328</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>190.847</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8836</v>
+        <v>29243.5798</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0931</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10190.847</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39190.6965</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0249</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.806</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2236.6821</v>
       </c>
       <c r="F6" s="1">
         <v>561.6084</v>
       </c>
       <c r="G6" s="1">
-        <v>2798.2906</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49568.0794</v>
+        <v>39619.9158</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8681</v>
+        <v>39619.9158</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8836</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49568.0794</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0077</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.3524</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2798.2906</v>
       </c>
       <c r="F7" s="1">
         <v>488.0841</v>
       </c>
       <c r="G7" s="1">
-        <v>3286.3747</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51088.9503</v>
       </c>
       <c r="I7" s="1">
-        <v>58957.5153</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.94</v>
+        <v>51088.9503</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48957.5153</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4955</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8957.515299999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>1042.4847</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61042.4847</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0248</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.7873</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3286.3747</v>
       </c>
       <c r="F8" s="1">
         <v>620.8072</v>
       </c>
       <c r="G8" s="1">
-        <v>3907.1819</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>69137.97500000001</v>
+        <v>58152.7288</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1042.4847</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9157</v>
+        <v>59195.2135</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.2572</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11042.4847</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69137.97500000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0268</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.1269</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3907.1819</v>
       </c>
       <c r="F9" s="1">
         <v>529.1539</v>
       </c>
       <c r="G9" s="1">
-        <v>4436.3358</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70457.8211</v>
       </c>
       <c r="I9" s="1">
-        <v>79591.9194</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9409</v>
+        <v>70457.8211</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69591.9194</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8113</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9591.919400000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>408.0806</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80408.0806</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.016</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.8817</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4436.3358</v>
       </c>
       <c r="F10" s="1">
         <v>582.0521</v>
       </c>
       <c r="G10" s="1">
-        <v>5018.3879</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>89272.1021</v>
+        <v>78917.9777</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>408.0806</v>
       </c>
       <c r="J10" s="1">
-        <v>17.934</v>
+        <v>79326.0583</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.0329</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10408.0806</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89272.1021</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0126</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,40 +1933,40 @@
         <v>17.8917</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5018.3879</v>
       </c>
       <c r="F11" s="1">
         <v>558.9184</v>
       </c>
       <c r="G11" s="1">
-        <v>5577.3063</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>99270.4742</v>
+        <v>89322.28599999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.9298</v>
+        <v>89322.28599999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.934</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99270.4742</v>
       </c>
       <c r="Q11" s="3">
         <v>-0</v>
@@ -1995,43 +1986,43 @@
         <v>16.2541</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5577.3063</v>
       </c>
       <c r="F12" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6192.5357</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100132.063</v>
+        <v>90183.92690000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7633</v>
+        <v>90183.92690000001</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.9298</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.5</v>
       </c>
-      <c r="L12" s="1">
-        <v>2509.7878</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7490.2122</v>
+        <v>2258.2745</v>
       </c>
       <c r="O12" s="1">
-        <v>2509.7878</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>102641.8509</v>
+        <v>-7741.7255</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0607</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.4549</v>
       </c>
       <c r="E13" s="1">
+        <v>6192.5357</v>
+      </c>
+      <c r="F13" s="1">
+        <v>793.1643</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>809.4383</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7001.9739</v>
-      </c>
       <c r="H13" s="1">
-        <v>107653.2488</v>
+        <v>95208.37790000001</v>
       </c>
       <c r="I13" s="1">
-        <v>122509.7878</v>
+        <v>2258.2745</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4965</v>
+        <v>97466.6525</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112258.2745</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.128</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12509.7878</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>107653.2488</v>
+        <v>-12258.2745</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0443</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.6183</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6985.6999</v>
       </c>
       <c r="F14" s="1">
-        <v>-7001.9739</v>
+        <v>-6985.6999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108538.9155</v>
       </c>
       <c r="I14" s="1">
-        <v>122509.7878</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4965</v>
+        <v>108538.9155</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112258.2745</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0697</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108791.7698</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108791.7698</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>108791.7698</v>
+        <v>108538.9155</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07530000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.8769</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.3810999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>559.3810999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.145399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8769</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.8772</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>559.3810999999999</v>
       </c>
       <c r="F3" s="1">
         <v>559.3717</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.7528</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19896.4594</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.877</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8769</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19896.4594</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0026</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.1874</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1118.7528</v>
       </c>
       <c r="F4" s="1">
         <v>547.6421</v>
       </c>
       <c r="G4" s="1">
-        <v>1666.3949</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20241.7065</v>
       </c>
       <c r="I4" s="1">
-        <v>29960.1861</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.979</v>
+        <v>20241.7065</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19960.1861</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8415</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9960.186100000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>39.8139</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30190.0639</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0098</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.6132</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1666.3949</v>
       </c>
       <c r="F5" s="1">
         <v>570.0165</v>
       </c>
       <c r="G5" s="1">
-        <v>2236.4114</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39185.953</v>
+        <v>29198.2386</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>39.8139</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8858</v>
+        <v>29238.0525</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0029</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10039.8139</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39185.953</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.025</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.806</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2236.4114</v>
       </c>
       <c r="F6" s="1">
         <v>561.6084</v>
       </c>
       <c r="G6" s="1">
-        <v>2798.0198</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49563.2839</v>
+        <v>39615.1203</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8698</v>
+        <v>39615.1203</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8858</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49563.2839</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0077</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.3524</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2798.0198</v>
       </c>
       <c r="F7" s="1">
         <v>529.7094</v>
       </c>
       <c r="G7" s="1">
-        <v>3327.7293</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51084.0076</v>
       </c>
       <c r="I7" s="1">
-        <v>59721.4395</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9466</v>
+        <v>51084.0076</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49721.4395</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7702</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9721.4395</v>
       </c>
-      <c r="O7" s="1">
-        <v>278.5605</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61033.5793</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0247</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.7873</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3327.7293</v>
       </c>
       <c r="F8" s="1">
         <v>577.8595</v>
       </c>
       <c r="G8" s="1">
-        <v>3905.5888</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>69109.784</v>
+        <v>58884.5022</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>278.5605</v>
       </c>
       <c r="J8" s="1">
-        <v>17.923</v>
+        <v>59163.0627</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.0303</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10278.5605</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69109.784</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0271</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.1269</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3905.5888</v>
       </c>
       <c r="F9" s="1">
         <v>551.6663</v>
       </c>
       <c r="G9" s="1">
-        <v>4457.2551</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>80377.2353</v>
+        <v>70429.0919</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9483</v>
+        <v>70429.0919</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.923</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80377.2353</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.016</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.8817</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4457.2551</v>
       </c>
       <c r="F10" s="1">
         <v>559.2309</v>
       </c>
       <c r="G10" s="1">
-        <v>5016.486</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>89238.27009999999</v>
+        <v>79290.11079999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9408</v>
+        <v>79290.11079999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9483</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89238.27009999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0126</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,40 +2701,40 @@
         <v>17.8917</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5016.486</v>
       </c>
       <c r="F11" s="1">
         <v>558.9184</v>
       </c>
       <c r="G11" s="1">
-        <v>5575.4044</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99236.6232</v>
+        <v>89288.43489999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.9359</v>
+        <v>89288.43489999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.9408</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99236.6232</v>
       </c>
       <c r="Q11" s="3">
         <v>-0</v>
@@ -2769,43 +2754,43 @@
         <v>16.2541</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5575.4044</v>
       </c>
       <c r="F12" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6190.6338</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>100101.3105</v>
+        <v>90153.1743</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7688</v>
+        <v>90153.1743</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.9359</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.5</v>
       </c>
-      <c r="L12" s="1">
-        <v>2508.932</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7491.068</v>
+        <v>2257.4187</v>
       </c>
       <c r="O12" s="1">
-        <v>2508.932</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>102610.2425</v>
+        <v>-7742.5813</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0607</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.4549</v>
       </c>
       <c r="E13" s="1">
+        <v>6190.6338</v>
+      </c>
+      <c r="F13" s="1">
+        <v>793.1088999999999</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>809.3828999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7000.0167</v>
-      </c>
       <c r="H13" s="1">
-        <v>107623.157</v>
+        <v>95179.1375</v>
       </c>
       <c r="I13" s="1">
-        <v>122508.932</v>
+        <v>2257.4187</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5012</v>
+        <v>97436.5563</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112257.4187</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.1334</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12508.932</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>107623.157</v>
+        <v>-12257.4187</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0443</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.6183</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6983.7427</v>
       </c>
       <c r="F14" s="1">
-        <v>-7000.0167</v>
+        <v>-6983.7427</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108508.5055</v>
       </c>
       <c r="I14" s="1">
-        <v>122508.932</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5012</v>
+        <v>108508.5055</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112257.4187</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0741</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108761.3597</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108761.3597</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>108761.3597</v>
+        <v>108508.5055</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07530000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.8769</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.3810999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>559.3810999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.145399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8769</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.8772</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>559.3810999999999</v>
       </c>
       <c r="F3" s="1">
         <v>559.3717</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.7528</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19896.4594</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.877</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8769</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19896.4594</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0026</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.1874</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1118.7528</v>
       </c>
       <c r="F4" s="1">
         <v>549.8312</v>
       </c>
       <c r="G4" s="1">
-        <v>1668.584</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30189.8575</v>
+        <v>20241.7065</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9793</v>
+        <v>20241.7065</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.877</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30189.8575</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0098</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.6132</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1668.584</v>
       </c>
       <c r="F5" s="1">
         <v>567.756</v>
       </c>
       <c r="G5" s="1">
-        <v>2236.34</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39184.7025</v>
+        <v>29236.5954</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8864</v>
+        <v>29236.5954</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9793</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39184.7025</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.025</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.806</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2236.34</v>
       </c>
       <c r="F6" s="1">
         <v>561.6084</v>
       </c>
       <c r="G6" s="1">
-        <v>2797.9485</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49562.0197</v>
+        <v>39613.8562</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8702</v>
+        <v>39613.8562</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8864</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49562.0197</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0077</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.3524</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2797.9485</v>
       </c>
       <c r="F7" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3342.8363</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61030.8314</v>
+        <v>51082.7047</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9488</v>
+        <v>51082.7047</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8702</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61030.8314</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0247</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.7873</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3342.8363</v>
       </c>
       <c r="F8" s="1">
         <v>562.1989</v>
       </c>
       <c r="G8" s="1">
-        <v>3905.0352</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>69099.9883</v>
+        <v>59151.8231</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9256</v>
+        <v>59151.8231</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9488</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69099.9883</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0272</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.1269</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3905.0352</v>
       </c>
       <c r="F9" s="1">
         <v>551.6663</v>
       </c>
       <c r="G9" s="1">
-        <v>4456.7015</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>80367.25260000001</v>
+        <v>70419.10920000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9505</v>
+        <v>70419.10920000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9256</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80367.25260000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.016</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.8817</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4456.7015</v>
       </c>
       <c r="F10" s="1">
         <v>559.2309</v>
       </c>
       <c r="G10" s="1">
-        <v>5015.9325</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89228.4224</v>
+        <v>79280.2631</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9428</v>
+        <v>79280.2631</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9505</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89228.4224</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0126</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,40 +3469,40 @@
         <v>17.8917</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5015.9325</v>
       </c>
       <c r="F11" s="1">
         <v>558.9184</v>
       </c>
       <c r="G11" s="1">
-        <v>5574.8508</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>99226.77</v>
+        <v>89278.5817</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.9377</v>
+        <v>89278.5817</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.9428</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99226.77</v>
       </c>
       <c r="Q11" s="3">
         <v>-0</v>
@@ -3543,43 +3522,43 @@
         <v>16.2541</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5574.8508</v>
       </c>
       <c r="F12" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6190.0802</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>100092.3592</v>
+        <v>90144.223</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7704</v>
+        <v>90144.223</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.9377</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.5</v>
       </c>
-      <c r="L12" s="1">
-        <v>2508.6829</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7491.3171</v>
+        <v>2257.1696</v>
       </c>
       <c r="O12" s="1">
-        <v>2508.6829</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>102601.042</v>
+        <v>-7742.8304</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0607</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.4549</v>
       </c>
       <c r="E13" s="1">
+        <v>6190.0802</v>
+      </c>
+      <c r="F13" s="1">
+        <v>793.0928</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>809.3668</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6999.447</v>
-      </c>
       <c r="H13" s="1">
-        <v>107614.398</v>
+        <v>95170.62639999999</v>
       </c>
       <c r="I13" s="1">
-        <v>122508.6829</v>
+        <v>2257.1696</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5026</v>
+        <v>97427.796</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112257.1696</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.135</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12508.6829</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>107614.398</v>
+        <v>-12257.1696</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0443</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.6183</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6983.173</v>
       </c>
       <c r="F14" s="1">
-        <v>-6999.447</v>
+        <v>-6983.173</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108499.6539</v>
       </c>
       <c r="I14" s="1">
-        <v>122508.6829</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5026</v>
+        <v>108499.6539</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112257.1696</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0754</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108752.5081</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108752.5081</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>108752.5081</v>
+        <v>108499.6539</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07530000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.8769</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.3810999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>559.3810999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.145399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8769</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.145399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.8772</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>559.3810999999999</v>
       </c>
       <c r="F3" s="1">
         <v>559.3717</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.7528</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19896.4594</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.877</v>
+        <v>9948.313200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8769</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19896.4594</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0026</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.1874</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1118.7528</v>
       </c>
       <c r="F4" s="1">
         <v>549.8312</v>
       </c>
       <c r="G4" s="1">
-        <v>1668.584</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30189.8575</v>
+        <v>20241.7065</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9793</v>
+        <v>20241.7065</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.877</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30189.8575</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0098</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.6132</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1668.584</v>
       </c>
       <c r="F5" s="1">
         <v>567.756</v>
       </c>
       <c r="G5" s="1">
-        <v>2236.34</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39184.7025</v>
+        <v>29236.5954</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8864</v>
+        <v>29236.5954</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9793</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39184.7025</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.025</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.806</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2236.34</v>
       </c>
       <c r="F6" s="1">
         <v>561.6084</v>
       </c>
       <c r="G6" s="1">
-        <v>2797.9485</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49562.0197</v>
+        <v>39613.8562</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.8702</v>
+        <v>39613.8562</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8864</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49562.0197</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0077</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.3524</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2797.9485</v>
       </c>
       <c r="F7" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3342.8363</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61030.8314</v>
+        <v>51082.7047</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9488</v>
+        <v>51082.7047</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8702</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61030.8314</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0247</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.7873</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3342.8363</v>
       </c>
       <c r="F8" s="1">
         <v>562.1989</v>
       </c>
       <c r="G8" s="1">
-        <v>3905.0352</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>69099.9883</v>
+        <v>59151.8231</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9256</v>
+        <v>59151.8231</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9488</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69099.9883</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0272</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.1269</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3905.0352</v>
       </c>
       <c r="F9" s="1">
         <v>551.6663</v>
       </c>
       <c r="G9" s="1">
-        <v>4456.7015</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>80367.25260000001</v>
+        <v>70419.10920000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9505</v>
+        <v>70419.10920000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9256</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80367.25260000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.016</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.8817</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4456.7015</v>
       </c>
       <c r="F10" s="1">
         <v>559.2309</v>
       </c>
       <c r="G10" s="1">
-        <v>5015.9325</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>89228.4224</v>
+        <v>79280.2631</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9428</v>
+        <v>79280.2631</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9505</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89228.4224</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0126</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,40 +4237,40 @@
         <v>17.8917</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5015.9325</v>
       </c>
       <c r="F11" s="1">
         <v>558.9184</v>
       </c>
       <c r="G11" s="1">
-        <v>5574.8508</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>99226.77</v>
+        <v>89278.5817</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.9377</v>
+        <v>89278.5817</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.9428</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99226.77</v>
       </c>
       <c r="Q11" s="3">
         <v>-0</v>
@@ -4317,43 +4290,43 @@
         <v>16.2541</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5574.8508</v>
       </c>
       <c r="F12" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6190.0802</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>100092.3592</v>
+        <v>90144.223</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7704</v>
+        <v>90144.223</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17.9377</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.5</v>
       </c>
-      <c r="L12" s="1">
-        <v>2508.6829</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7491.3171</v>
+        <v>2257.1696</v>
       </c>
       <c r="O12" s="1">
-        <v>2508.6829</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>102601.042</v>
+        <v>-7742.8304</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0607</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.4549</v>
       </c>
       <c r="E13" s="1">
+        <v>6190.0802</v>
+      </c>
+      <c r="F13" s="1">
+        <v>793.0928</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>809.3668</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6999.447</v>
-      </c>
       <c r="H13" s="1">
-        <v>107614.398</v>
+        <v>95170.62639999999</v>
       </c>
       <c r="I13" s="1">
-        <v>122508.6829</v>
+        <v>2257.1696</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5026</v>
+        <v>97427.796</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112257.1696</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.135</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12508.6829</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>107614.398</v>
+        <v>-12257.1696</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0443</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.6183</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6983.173</v>
       </c>
       <c r="F14" s="1">
-        <v>-6999.447</v>
+        <v>-6983.173</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108499.6539</v>
       </c>
       <c r="I14" s="1">
-        <v>122508.6829</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5026</v>
+        <v>108499.6539</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112257.1696</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0754</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108752.5081</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108752.5081</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>108752.5081</v>
+        <v>108499.6539</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07530000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4452,7 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.5762</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.5026</v>
+        <v>16.0754</v>
       </c>
       <c r="D3" s="1">
-        <v>17.4965</v>
+        <v>16.0697</v>
       </c>
       <c r="E3" s="1">
-        <v>17.5012</v>
+        <v>16.0741</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5026</v>
+        <v>16.0754</v>
       </c>
       <c r="G3" s="1">
-        <v>17.5026</v>
+        <v>16.0754</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1274</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1895</v>
+        <v>-0.1211</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1888</v>
+        <v>-0.1203</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1894</v>
+        <v>-0.1209</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1895</v>
+        <v>-0.1211</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1895</v>
+        <v>-0.1211</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1158</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1043</v>
+        <v>0.1092</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1043</v>
+        <v>0.109</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1043</v>
+        <v>0.1092</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1043</v>
+        <v>0.1092</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1043</v>
+        <v>0.1092</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.2753</v>
       </c>
       <c r="C6" s="4">
-        <v>-2.0124</v>
+        <v>-1.2947</v>
       </c>
       <c r="D6" s="4">
-        <v>-2.0058</v>
+        <v>-1.2896</v>
       </c>
       <c r="E6" s="4">
-        <v>-2.0109</v>
+        <v>-1.2936</v>
       </c>
       <c r="F6" s="4">
-        <v>-2.0124</v>
+        <v>-1.2947</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.0124</v>
+        <v>-1.2947</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1689</v>
+        <v>-0.3454</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1686</v>
+        <v>-0.1722</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1688</v>
+        <v>-0.1724</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1689</v>
+        <v>-0.1725</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1689</v>
+        <v>-0.1725</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2508.6829</v>
+        <v>2257.1696</v>
       </c>
       <c r="D8" s="1">
-        <v>2509.7878</v>
+        <v>2258.2745</v>
       </c>
       <c r="E8" s="1">
-        <v>2508.932</v>
+        <v>2257.4187</v>
       </c>
       <c r="F8" s="1">
-        <v>2508.6829</v>
+        <v>2257.1696</v>
       </c>
       <c r="G8" s="1">
-        <v>2508.6829</v>
+        <v>2257.1696</v>
       </c>
     </row>
   </sheetData>
